--- a/DataFileSamples/Data.xlsx
+++ b/DataFileSamples/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoPython/DataFileSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1012,10 +1012,13 @@
   <dimension ref="A1:BR9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" activeCellId="1" sqref="A1:BR9 H17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/DataFileSamples/Data.xlsx
+++ b/DataFileSamples/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="-42080" yWindow="17680" windowWidth="21600" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -566,6 +566,10 @@
       </rPr>
       <t>5</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na2O+K2O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1009,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR9"/>
+  <dimension ref="A1:BS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1024,7 @@
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,175 +1068,178 @@
         <v>93</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1276,175 +1283,179 @@
         <v>6.93</v>
       </c>
       <c r="O2">
+        <f>S2+T2</f>
+        <v>6.48</v>
+      </c>
+      <c r="P2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3.4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5.98</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4.13</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.35</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.42</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1.05</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>99.83</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.5</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>16.399999999999999</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2.36</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>7.5</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>148</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>73.599999999999994</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>20.100000000000001</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>45.5</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>94.7</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>21.7</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1.07</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>28.8</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1024</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>12</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>222</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>844</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>34.1</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>74</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>9.1</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>36.799999999999997</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>6.5</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>1.75</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>5.14</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0.62</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>3.05</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>1.35</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.18</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>0.16</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>5.71</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>18.600000000000001</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>4.71</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>1.34</v>
       </c>
-      <c r="BI2" s="7">
+      <c r="BJ2" s="7">
         <v>174.45</v>
       </c>
-      <c r="BJ2" s="7">
+      <c r="BK2" s="7">
         <v>0.9</v>
       </c>
-      <c r="BK2" s="7">
+      <c r="BL2" s="7">
         <v>22.29</v>
       </c>
-      <c r="BL2" s="7">
+      <c r="BM2" s="7">
         <v>0.03</v>
       </c>
-      <c r="BM2" s="7">
+      <c r="BN2" s="7">
         <v>6727</v>
       </c>
-      <c r="BN2" s="7">
+      <c r="BO2" s="7">
         <v>3.89</v>
       </c>
-      <c r="BO2" s="7">
+      <c r="BP2" s="7">
         <v>62.14</v>
       </c>
-      <c r="BP2" s="7">
+      <c r="BQ2" s="7">
         <v>15.97</v>
       </c>
-      <c r="BQ2" s="7">
+      <c r="BR2" s="7">
         <v>38.92</v>
       </c>
-      <c r="BR2" s="7">
+      <c r="BS2" s="7">
         <v>18.45</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1488,175 +1499,179 @@
         <v>7.03</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O9" si="0">S3+T3</f>
+        <v>7.16</v>
+      </c>
+      <c r="P3">
         <v>0.13</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3.05</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5.63</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.99</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3.17</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.44</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.94</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>99.8</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.46</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>28.5</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3.49</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>14.3</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>131</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>75</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>18.8</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>34.6</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>21.4</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>99.7</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>21.7</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1.39</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>102</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>715</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>26</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>330</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>15.9</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>3.24</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>890</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>54.4</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>114</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>13.9</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>54.7</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>9.9</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>2.1</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>8.15</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>1.07</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>5.66</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>1.06</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>2.76</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0.4</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>0.37</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>8.5299999999999994</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>1.08</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>22.3</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>12</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>2.83</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BJ3" s="7">
         <v>271.25</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BK3" s="7">
         <v>0.7</v>
       </c>
-      <c r="BK3" s="7">
+      <c r="BL3" s="7">
         <v>15.01</v>
       </c>
-      <c r="BL3" s="7">
+      <c r="BM3" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BM3" s="7">
+      <c r="BN3" s="7">
         <v>2875</v>
       </c>
-      <c r="BN3" s="7">
+      <c r="BO3" s="7">
         <v>3.41</v>
       </c>
-      <c r="BO3" s="7">
+      <c r="BP3" s="7">
         <v>50.23</v>
       </c>
-      <c r="BP3" s="7">
+      <c r="BQ3" s="7">
         <v>14.72</v>
       </c>
-      <c r="BQ3" s="7">
+      <c r="BR3" s="7">
         <v>38.700000000000003</v>
       </c>
-      <c r="BR3" s="7">
+      <c r="BS3" s="7">
         <v>12.69</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1700,175 +1715,179 @@
         <v>10.210000000000001</v>
       </c>
       <c r="O4">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="P4">
         <v>0.13</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6.34</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>7.34</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3.61</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.64</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.6</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.67</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>99.57</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>23.3</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>19</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>184</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>179</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>34.700000000000003</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>97.9</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>29.2</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>105</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>20.2</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1.27</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>31.8</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>870</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>24.6</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>264</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>15.2</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>13.3</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>589</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>36.6</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>82.5</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>10.7</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>45.9</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>9.1</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>2.44</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>7.94</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>1.05</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>5.55</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>1.03</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>2.54</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.35</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>2.09</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>0.3</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>6.6</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>1.03</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>11.6</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BJ4" s="7">
         <v>207.96</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BK4" s="7">
         <v>0.87</v>
       </c>
-      <c r="BK4" s="7">
+      <c r="BL4" s="7">
         <v>12.6</v>
       </c>
-      <c r="BL4" s="7">
+      <c r="BM4" s="7">
         <v>0.04</v>
       </c>
-      <c r="BM4" s="7">
+      <c r="BN4" s="7">
         <v>5790</v>
       </c>
-      <c r="BN4" s="7">
+      <c r="BO4" s="7">
         <v>2.4</v>
       </c>
-      <c r="BO4" s="7">
+      <c r="BP4" s="7">
         <v>35.369999999999997</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BQ4" s="7">
         <v>14.71</v>
       </c>
-      <c r="BQ4" s="7">
+      <c r="BR4" s="7">
         <v>39.96</v>
       </c>
-      <c r="BR4" s="7">
+      <c r="BS4" s="7">
         <v>10.72</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1912,175 +1931,179 @@
         <v>10.31</v>
       </c>
       <c r="O5">
+        <f t="shared" si="0"/>
+        <v>5.29</v>
+      </c>
+      <c r="P5">
         <v>0.13</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.78</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7.1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.59</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.7</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.92</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>99.52</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.42</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>19.899999999999999</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3.15</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>18</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>164</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>91.5</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>28.7</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>29.5</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>20.2</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>149</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>23</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1.57</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>32.9</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1025</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>32.200000000000003</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>415</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>23.8</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1.9</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>1012</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>69.099999999999994</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>152</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>20</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>79.400000000000006</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>14.5</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>3.2</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>11.6</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>1.45</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>7.21</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>1.28</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>3.13</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.42</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>2.56</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>0.36</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>10.199999999999999</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>1.33</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>17.600000000000001</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>7.34</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>1.75</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BJ5" s="7">
         <v>366.36</v>
       </c>
-      <c r="BJ5" s="7">
+      <c r="BK5" s="7">
         <v>0.74</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BL5" s="7">
         <v>19.440000000000001</v>
       </c>
-      <c r="BL5" s="7">
+      <c r="BM5" s="7">
         <v>0.03</v>
       </c>
-      <c r="BM5" s="7">
+      <c r="BN5" s="7">
         <v>5537</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BO5" s="7">
         <v>2.91</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BP5" s="7">
         <v>52.13</v>
       </c>
-      <c r="BP5" s="7">
+      <c r="BQ5" s="7">
         <v>17.91</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BR5" s="7">
         <v>40.79</v>
       </c>
-      <c r="BR5" s="7">
+      <c r="BS5" s="7">
         <v>12.88</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2124,175 +2147,179 @@
         <v>9.86</v>
       </c>
       <c r="O6">
+        <f t="shared" si="0"/>
+        <v>6.34</v>
+      </c>
+      <c r="P6">
         <v>0.09</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3.2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6.39</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3.94</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.96</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.26</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>99.51</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.39</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>25.1</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3.35</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>18</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>207</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7.7</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>24.7</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>15</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>22.6</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>138</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>24.1</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1.44</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>60.4</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>902</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>32.1</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>419</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>21.4</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>0.65</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>1021</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>72</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>156</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>20</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>79.400000000000006</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>14.1</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>3.32</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>11.5</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>1.43</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>7.18</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>1.3</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>3.22</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>0.44</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>2.63</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>0.38</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>10.199999999999999</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>1.22</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>21.3</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>9.39</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>2</v>
       </c>
-      <c r="BI6" s="7">
+      <c r="BJ6" s="7">
         <v>372.88</v>
       </c>
-      <c r="BJ6" s="7">
+      <c r="BK6" s="7">
         <v>0.78</v>
       </c>
-      <c r="BK6" s="7">
+      <c r="BL6" s="7">
         <v>19.63</v>
       </c>
-      <c r="BL6" s="7">
+      <c r="BM6" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BM6" s="7">
+      <c r="BN6" s="7">
         <v>5266</v>
       </c>
-      <c r="BN6" s="7">
+      <c r="BO6" s="7">
         <v>3.36</v>
       </c>
-      <c r="BO6" s="7">
+      <c r="BP6" s="7">
         <v>58.87</v>
       </c>
-      <c r="BP6" s="7">
+      <c r="BQ6" s="7">
         <v>17.53</v>
       </c>
-      <c r="BQ6" s="7">
+      <c r="BR6" s="7">
         <v>41.1</v>
       </c>
-      <c r="BR6" s="7">
+      <c r="BS6" s="7">
         <v>13.06</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2336,175 +2363,179 @@
         <v>7.85</v>
       </c>
       <c r="O7">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="P7">
         <v>0.13</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3.01</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7.59</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3.56</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.34</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.59</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3.65</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>99.6</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.43</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>11.9</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2.63</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>16.7</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>158</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>118</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>23.7</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>52.9</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>32.299999999999997</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>101</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>20.8</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1.25</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>92.8</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>941</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>30.4</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>280</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>13.6</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3.55</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>830</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>48.2</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>102</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>12.5</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>50.9</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>9.1</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>2.29</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>7.53</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>0.95</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>4.79</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.88</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>2.21</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>0.3</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>1.86</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>0.26</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>7.09</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>0.85</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>19.8</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>7.16</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>1.7</v>
       </c>
-      <c r="BI7" s="7">
+      <c r="BJ7" s="7">
         <v>243.58</v>
       </c>
-      <c r="BJ7" s="7">
+      <c r="BK7" s="7">
         <v>0.83</v>
       </c>
-      <c r="BK7" s="7">
+      <c r="BL7" s="7">
         <v>18.77</v>
       </c>
-      <c r="BL7" s="7">
+      <c r="BM7" s="7">
         <v>0.1</v>
       </c>
-      <c r="BM7" s="7">
+      <c r="BN7" s="7">
         <v>4745</v>
       </c>
-      <c r="BN7" s="7">
+      <c r="BO7" s="7">
         <v>3.54</v>
       </c>
-      <c r="BO7" s="7">
+      <c r="BP7" s="7">
         <v>56.74</v>
       </c>
-      <c r="BP7" s="7">
+      <c r="BQ7" s="7">
         <v>16.05</v>
       </c>
-      <c r="BQ7" s="7">
+      <c r="BR7" s="7">
         <v>39.46</v>
       </c>
-      <c r="BR7" s="7">
+      <c r="BS7" s="7">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2548,175 +2579,179 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="O8">
+        <f t="shared" si="0"/>
+        <v>6.54</v>
+      </c>
+      <c r="P8">
         <v>0.08</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.64</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.43</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4.13</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.41</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.71</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.88</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>99.94</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.26</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>21.8</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3.05</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>16.899999999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>160</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>105</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>18.600000000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>30.7</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>28.2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>106</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>22.2</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1.29</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>59.3</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>995</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>25.2</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>337</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>17.8</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>1080</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>56.1</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>119</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>14.8</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>60.4</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>10.8</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>2.69</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>9.09</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>5.82</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>1.06</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>2.63</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>0.35</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>2.1</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>0.3</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>8.4600000000000009</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>18.7</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>8.66</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>1.95</v>
       </c>
-      <c r="BI8" s="7">
+      <c r="BJ8" s="7">
         <v>285.83999999999997</v>
       </c>
-      <c r="BJ8" s="7">
+      <c r="BK8" s="7">
         <v>0.81</v>
       </c>
-      <c r="BK8" s="7">
+      <c r="BL8" s="7">
         <v>19.05</v>
       </c>
-      <c r="BL8" s="7">
+      <c r="BM8" s="7">
         <v>0.06</v>
       </c>
-      <c r="BM8" s="7">
+      <c r="BN8" s="7">
         <v>5221</v>
       </c>
-      <c r="BN8" s="7">
+      <c r="BO8" s="7">
         <v>3.15</v>
       </c>
-      <c r="BO8" s="7">
+      <c r="BP8" s="7">
         <v>50.9</v>
       </c>
-      <c r="BP8" s="7">
+      <c r="BQ8" s="7">
         <v>16.170000000000002</v>
       </c>
-      <c r="BQ8" s="7">
+      <c r="BR8" s="7">
         <v>39.82</v>
       </c>
-      <c r="BR8" s="7">
+      <c r="BS8" s="7">
         <v>13.36</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2760,171 +2795,175 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="O9">
+        <f t="shared" si="0"/>
+        <v>4.71</v>
+      </c>
+      <c r="P9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>9.59</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8.18</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3.14</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.57</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.3</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1.54</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>99.56</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.66</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>17</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1.76</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>25.9</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>211</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>466</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>43.4</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>200</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>53.4</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>77</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>17.3</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1.33</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>29</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>700</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>21.7</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>150</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>9.6</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>3.29</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>594</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>21.5</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>47.1</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>5.9</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>25.5</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>5.6</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>1.68</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>5.4</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>0.8</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.93</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>0.36</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>2.2200000000000002</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>0.32</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>4.08</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>0.73</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>11.2</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>3.8</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="BI9" s="7">
+      <c r="BJ9" s="7">
         <v>124.31</v>
       </c>
-      <c r="BJ9" s="7">
+      <c r="BK9" s="7">
         <v>0.93</v>
       </c>
-      <c r="BK9" s="7">
+      <c r="BL9" s="7">
         <v>6.86</v>
       </c>
-      <c r="BL9" s="7">
+      <c r="BM9" s="7">
         <v>0.04</v>
       </c>
-      <c r="BM9" s="7">
+      <c r="BN9" s="7">
         <v>3887</v>
       </c>
-      <c r="BN9" s="7">
+      <c r="BO9" s="7">
         <v>2.2400000000000002</v>
       </c>
-      <c r="BO9" s="7">
+      <c r="BP9" s="7">
         <v>29.27</v>
       </c>
-      <c r="BP9" s="7">
+      <c r="BQ9" s="7">
         <v>13.04</v>
       </c>
-      <c r="BQ9" s="7">
+      <c r="BR9" s="7">
         <v>36.729999999999997</v>
       </c>
-      <c r="BR9" s="7">
+      <c r="BS9" s="7">
         <v>6.9</v>
       </c>
     </row>

--- a/DataFileSamples/Data.xlsx
+++ b/DataFileSamples/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-42080" yWindow="17680" windowWidth="21600" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -566,10 +566,6 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Na2O+K2O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1013,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS9"/>
+  <dimension ref="A1:BR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1020,7 @@
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,178 +1064,175 @@
         <v>93</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="BI1" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="BI1" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BL1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BM1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BP1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ1" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BR1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1283,179 +1276,175 @@
         <v>6.93</v>
       </c>
       <c r="O2">
-        <f>S2+T2</f>
-        <v>6.48</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P2">
-        <v>7.0000000000000007E-2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2">
-        <v>3.4</v>
+        <v>5.98</v>
       </c>
       <c r="R2">
-        <v>5.98</v>
+        <v>4.13</v>
       </c>
       <c r="S2">
-        <v>4.13</v>
+        <v>2.35</v>
       </c>
       <c r="T2">
-        <v>2.35</v>
+        <v>0.42</v>
       </c>
       <c r="U2">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
       <c r="V2">
-        <v>1.05</v>
+        <v>99.83</v>
       </c>
       <c r="W2">
-        <v>99.83</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Y2">
-        <v>16.399999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="Z2">
-        <v>2.36</v>
+        <v>7.5</v>
       </c>
       <c r="AA2">
-        <v>7.5</v>
+        <v>148</v>
       </c>
       <c r="AB2">
-        <v>148</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AC2">
-        <v>73.599999999999994</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AD2">
-        <v>20.100000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="AE2">
-        <v>45.5</v>
+        <v>30</v>
       </c>
       <c r="AF2">
-        <v>30</v>
+        <v>94.7</v>
       </c>
       <c r="AG2">
-        <v>94.7</v>
+        <v>21.7</v>
       </c>
       <c r="AH2">
-        <v>21.7</v>
+        <v>1.07</v>
       </c>
       <c r="AI2">
-        <v>1.07</v>
+        <v>28.8</v>
       </c>
       <c r="AJ2">
-        <v>28.8</v>
+        <v>1024</v>
       </c>
       <c r="AK2">
-        <v>1024</v>
+        <v>12</v>
       </c>
       <c r="AL2">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="AM2">
-        <v>222</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AN2">
-        <v>8.8000000000000007</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AO2">
-        <v>1.1499999999999999</v>
+        <v>844</v>
       </c>
       <c r="AP2">
-        <v>844</v>
+        <v>34.1</v>
       </c>
       <c r="AQ2">
-        <v>34.1</v>
+        <v>74</v>
       </c>
       <c r="AR2">
-        <v>74</v>
+        <v>9.1</v>
       </c>
       <c r="AS2">
-        <v>9.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AT2">
-        <v>36.799999999999997</v>
+        <v>6.5</v>
       </c>
       <c r="AU2">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="AV2">
-        <v>1.75</v>
+        <v>5.14</v>
       </c>
       <c r="AW2">
-        <v>5.14</v>
+        <v>0.62</v>
       </c>
       <c r="AX2">
-        <v>0.62</v>
+        <v>3.05</v>
       </c>
       <c r="AY2">
-        <v>3.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AZ2">
+        <v>1.35</v>
+      </c>
+      <c r="BA2">
+        <v>0.18</v>
+      </c>
+      <c r="BB2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BC2">
+        <v>0.16</v>
+      </c>
+      <c r="BD2">
+        <v>5.71</v>
+      </c>
+      <c r="BE2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BA2">
-        <v>1.35</v>
-      </c>
-      <c r="BB2">
-        <v>0.18</v>
-      </c>
-      <c r="BC2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BD2">
-        <v>0.16</v>
-      </c>
-      <c r="BE2">
-        <v>5.71</v>
-      </c>
       <c r="BF2">
-        <v>0.55000000000000004</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="BG2">
-        <v>18.600000000000001</v>
+        <v>4.71</v>
       </c>
       <c r="BH2">
-        <v>4.71</v>
-      </c>
-      <c r="BI2">
         <v>1.34</v>
       </c>
+      <c r="BI2" s="7">
+        <v>174.45</v>
+      </c>
       <c r="BJ2" s="7">
-        <v>174.45</v>
+        <v>0.9</v>
       </c>
       <c r="BK2" s="7">
-        <v>0.9</v>
+        <v>22.29</v>
       </c>
       <c r="BL2" s="7">
-        <v>22.29</v>
+        <v>0.03</v>
       </c>
       <c r="BM2" s="7">
-        <v>0.03</v>
+        <v>6727</v>
       </c>
       <c r="BN2" s="7">
-        <v>6727</v>
+        <v>3.89</v>
       </c>
       <c r="BO2" s="7">
-        <v>3.89</v>
+        <v>62.14</v>
       </c>
       <c r="BP2" s="7">
-        <v>62.14</v>
+        <v>15.97</v>
       </c>
       <c r="BQ2" s="7">
-        <v>15.97</v>
+        <v>38.92</v>
       </c>
       <c r="BR2" s="7">
-        <v>38.92</v>
-      </c>
-      <c r="BS2" s="7">
         <v>18.45</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1499,179 +1488,175 @@
         <v>7.03</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O9" si="0">S3+T3</f>
-        <v>7.16</v>
+        <v>0.13</v>
       </c>
       <c r="P3">
-        <v>0.13</v>
+        <v>3.05</v>
       </c>
       <c r="Q3">
-        <v>3.05</v>
+        <v>5.63</v>
       </c>
       <c r="R3">
-        <v>5.63</v>
+        <v>3.99</v>
       </c>
       <c r="S3">
-        <v>3.99</v>
+        <v>3.17</v>
       </c>
       <c r="T3">
-        <v>3.17</v>
+        <v>0.44</v>
       </c>
       <c r="U3">
-        <v>0.44</v>
+        <v>0.94</v>
       </c>
       <c r="V3">
-        <v>0.94</v>
+        <v>99.8</v>
       </c>
       <c r="W3">
-        <v>99.8</v>
+        <v>0.46</v>
       </c>
       <c r="X3">
-        <v>0.46</v>
+        <v>28.5</v>
       </c>
       <c r="Y3">
-        <v>28.5</v>
+        <v>3.49</v>
       </c>
       <c r="Z3">
-        <v>3.49</v>
+        <v>14.3</v>
       </c>
       <c r="AA3">
-        <v>14.3</v>
+        <v>131</v>
       </c>
       <c r="AB3">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AC3">
-        <v>75</v>
+        <v>18.8</v>
       </c>
       <c r="AD3">
-        <v>18.8</v>
+        <v>34.6</v>
       </c>
       <c r="AE3">
-        <v>34.6</v>
+        <v>21.4</v>
       </c>
       <c r="AF3">
-        <v>21.4</v>
+        <v>99.7</v>
       </c>
       <c r="AG3">
-        <v>99.7</v>
+        <v>21.7</v>
       </c>
       <c r="AH3">
-        <v>21.7</v>
+        <v>1.39</v>
       </c>
       <c r="AI3">
-        <v>1.39</v>
+        <v>102</v>
       </c>
       <c r="AJ3">
-        <v>102</v>
+        <v>715</v>
       </c>
       <c r="AK3">
-        <v>715</v>
+        <v>26</v>
       </c>
       <c r="AL3">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="AM3">
-        <v>330</v>
+        <v>15.9</v>
       </c>
       <c r="AN3">
-        <v>15.9</v>
+        <v>3.24</v>
       </c>
       <c r="AO3">
-        <v>3.24</v>
+        <v>890</v>
       </c>
       <c r="AP3">
-        <v>890</v>
+        <v>54.4</v>
       </c>
       <c r="AQ3">
-        <v>54.4</v>
+        <v>114</v>
       </c>
       <c r="AR3">
-        <v>114</v>
+        <v>13.9</v>
       </c>
       <c r="AS3">
-        <v>13.9</v>
+        <v>54.7</v>
       </c>
       <c r="AT3">
-        <v>54.7</v>
+        <v>9.9</v>
       </c>
       <c r="AU3">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="AV3">
-        <v>2.1</v>
+        <v>8.15</v>
       </c>
       <c r="AW3">
-        <v>8.15</v>
+        <v>1.07</v>
       </c>
       <c r="AX3">
-        <v>1.07</v>
+        <v>5.66</v>
       </c>
       <c r="AY3">
-        <v>5.66</v>
+        <v>1.06</v>
       </c>
       <c r="AZ3">
-        <v>1.06</v>
+        <v>2.76</v>
       </c>
       <c r="BA3">
-        <v>2.76</v>
+        <v>0.4</v>
       </c>
       <c r="BB3">
-        <v>0.4</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="BC3">
-        <v>2.5499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="BD3">
-        <v>0.37</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="BE3">
-        <v>8.5299999999999994</v>
+        <v>1.08</v>
       </c>
       <c r="BF3">
-        <v>1.08</v>
+        <v>22.3</v>
       </c>
       <c r="BG3">
-        <v>22.3</v>
+        <v>12</v>
       </c>
       <c r="BH3">
-        <v>12</v>
-      </c>
-      <c r="BI3">
         <v>2.83</v>
       </c>
+      <c r="BI3" s="7">
+        <v>271.25</v>
+      </c>
       <c r="BJ3" s="7">
-        <v>271.25</v>
+        <v>0.7</v>
       </c>
       <c r="BK3" s="7">
-        <v>0.7</v>
+        <v>15.01</v>
       </c>
       <c r="BL3" s="7">
-        <v>15.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BM3" s="7">
-        <v>0.14000000000000001</v>
+        <v>2875</v>
       </c>
       <c r="BN3" s="7">
-        <v>2875</v>
+        <v>3.41</v>
       </c>
       <c r="BO3" s="7">
-        <v>3.41</v>
+        <v>50.23</v>
       </c>
       <c r="BP3" s="7">
-        <v>50.23</v>
+        <v>14.72</v>
       </c>
       <c r="BQ3" s="7">
-        <v>14.72</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="BR3" s="7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="BS3" s="7">
         <v>12.69</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1715,179 +1700,175 @@
         <v>10.210000000000001</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>0.13</v>
       </c>
       <c r="P4">
-        <v>0.13</v>
+        <v>6.34</v>
       </c>
       <c r="Q4">
-        <v>6.34</v>
+        <v>7.34</v>
       </c>
       <c r="R4">
-        <v>7.34</v>
+        <v>3.61</v>
       </c>
       <c r="S4">
-        <v>3.61</v>
+        <v>1.64</v>
       </c>
       <c r="T4">
-        <v>1.64</v>
+        <v>0.6</v>
       </c>
       <c r="U4">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="V4">
-        <v>1.67</v>
+        <v>99.57</v>
       </c>
       <c r="W4">
-        <v>99.57</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X4">
-        <v>0.55000000000000004</v>
+        <v>23.3</v>
       </c>
       <c r="Y4">
-        <v>23.3</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Z4">
-        <v>2.4900000000000002</v>
+        <v>19</v>
       </c>
       <c r="AA4">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="AB4">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AC4">
-        <v>179</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD4">
-        <v>34.700000000000003</v>
+        <v>97.9</v>
       </c>
       <c r="AE4">
-        <v>97.9</v>
+        <v>29.2</v>
       </c>
       <c r="AF4">
-        <v>29.2</v>
+        <v>105</v>
       </c>
       <c r="AG4">
-        <v>105</v>
+        <v>20.2</v>
       </c>
       <c r="AH4">
-        <v>20.2</v>
+        <v>1.27</v>
       </c>
       <c r="AI4">
-        <v>1.27</v>
+        <v>31.8</v>
       </c>
       <c r="AJ4">
-        <v>31.8</v>
+        <v>870</v>
       </c>
       <c r="AK4">
-        <v>870</v>
+        <v>24.6</v>
       </c>
       <c r="AL4">
-        <v>24.6</v>
+        <v>264</v>
       </c>
       <c r="AM4">
-        <v>264</v>
+        <v>15.2</v>
       </c>
       <c r="AN4">
-        <v>15.2</v>
+        <v>13.3</v>
       </c>
       <c r="AO4">
-        <v>13.3</v>
+        <v>589</v>
       </c>
       <c r="AP4">
-        <v>589</v>
+        <v>36.6</v>
       </c>
       <c r="AQ4">
-        <v>36.6</v>
+        <v>82.5</v>
       </c>
       <c r="AR4">
-        <v>82.5</v>
+        <v>10.7</v>
       </c>
       <c r="AS4">
-        <v>10.7</v>
+        <v>45.9</v>
       </c>
       <c r="AT4">
-        <v>45.9</v>
+        <v>9.1</v>
       </c>
       <c r="AU4">
-        <v>9.1</v>
+        <v>2.44</v>
       </c>
       <c r="AV4">
-        <v>2.44</v>
+        <v>7.94</v>
       </c>
       <c r="AW4">
-        <v>7.94</v>
+        <v>1.05</v>
       </c>
       <c r="AX4">
-        <v>1.05</v>
+        <v>5.55</v>
       </c>
       <c r="AY4">
-        <v>5.55</v>
+        <v>1.03</v>
       </c>
       <c r="AZ4">
+        <v>2.54</v>
+      </c>
+      <c r="BA4">
+        <v>0.35</v>
+      </c>
+      <c r="BB4">
+        <v>2.09</v>
+      </c>
+      <c r="BC4">
+        <v>0.3</v>
+      </c>
+      <c r="BD4">
+        <v>6.6</v>
+      </c>
+      <c r="BE4">
         <v>1.03</v>
       </c>
-      <c r="BA4">
-        <v>2.54</v>
-      </c>
-      <c r="BB4">
-        <v>0.35</v>
-      </c>
-      <c r="BC4">
-        <v>2.09</v>
-      </c>
-      <c r="BD4">
-        <v>0.3</v>
-      </c>
-      <c r="BE4">
-        <v>6.6</v>
-      </c>
       <c r="BF4">
-        <v>1.03</v>
+        <v>11.6</v>
       </c>
       <c r="BG4">
-        <v>11.6</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="BH4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="BI4">
         <v>1.0900000000000001</v>
       </c>
+      <c r="BI4" s="7">
+        <v>207.96</v>
+      </c>
       <c r="BJ4" s="7">
-        <v>207.96</v>
+        <v>0.87</v>
       </c>
       <c r="BK4" s="7">
-        <v>0.87</v>
+        <v>12.6</v>
       </c>
       <c r="BL4" s="7">
-        <v>12.6</v>
+        <v>0.04</v>
       </c>
       <c r="BM4" s="7">
-        <v>0.04</v>
+        <v>5790</v>
       </c>
       <c r="BN4" s="7">
-        <v>5790</v>
+        <v>2.4</v>
       </c>
       <c r="BO4" s="7">
-        <v>2.4</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="BP4" s="7">
-        <v>35.369999999999997</v>
+        <v>14.71</v>
       </c>
       <c r="BQ4" s="7">
-        <v>14.71</v>
+        <v>39.96</v>
       </c>
       <c r="BR4" s="7">
-        <v>39.96</v>
-      </c>
-      <c r="BS4" s="7">
         <v>10.72</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1931,179 +1912,175 @@
         <v>10.31</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>5.29</v>
+        <v>0.13</v>
       </c>
       <c r="P5">
-        <v>0.13</v>
+        <v>3.78</v>
       </c>
       <c r="Q5">
-        <v>3.78</v>
+        <v>7.1</v>
       </c>
       <c r="R5">
-        <v>7.1</v>
+        <v>3.59</v>
       </c>
       <c r="S5">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="T5">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="V5">
-        <v>1.92</v>
+        <v>99.52</v>
       </c>
       <c r="W5">
-        <v>99.52</v>
+        <v>0.42</v>
       </c>
       <c r="X5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>3.15</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>164</v>
+      </c>
+      <c r="AB5">
+        <v>91.5</v>
+      </c>
+      <c r="AC5">
+        <v>28.7</v>
+      </c>
+      <c r="AD5">
+        <v>29.5</v>
+      </c>
+      <c r="AE5">
+        <v>20.2</v>
+      </c>
+      <c r="AF5">
+        <v>149</v>
+      </c>
+      <c r="AG5">
+        <v>23</v>
+      </c>
+      <c r="AH5">
+        <v>1.57</v>
+      </c>
+      <c r="AI5">
+        <v>32.9</v>
+      </c>
+      <c r="AJ5">
+        <v>1025</v>
+      </c>
+      <c r="AK5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AL5">
+        <v>415</v>
+      </c>
+      <c r="AM5">
+        <v>23.8</v>
+      </c>
+      <c r="AN5">
+        <v>1.9</v>
+      </c>
+      <c r="AO5">
+        <v>1012</v>
+      </c>
+      <c r="AP5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AQ5">
+        <v>152</v>
+      </c>
+      <c r="AR5">
+        <v>20</v>
+      </c>
+      <c r="AS5">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AT5">
+        <v>14.5</v>
+      </c>
+      <c r="AU5">
+        <v>3.2</v>
+      </c>
+      <c r="AV5">
+        <v>11.6</v>
+      </c>
+      <c r="AW5">
+        <v>1.45</v>
+      </c>
+      <c r="AX5">
+        <v>7.21</v>
+      </c>
+      <c r="AY5">
+        <v>1.28</v>
+      </c>
+      <c r="AZ5">
+        <v>3.13</v>
+      </c>
+      <c r="BA5">
         <v>0.42</v>
       </c>
-      <c r="Y5">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>3.15</v>
-      </c>
-      <c r="AA5">
-        <v>18</v>
-      </c>
-      <c r="AB5">
-        <v>164</v>
-      </c>
-      <c r="AC5">
-        <v>91.5</v>
-      </c>
-      <c r="AD5">
-        <v>28.7</v>
-      </c>
-      <c r="AE5">
-        <v>29.5</v>
-      </c>
-      <c r="AF5">
-        <v>20.2</v>
-      </c>
-      <c r="AG5">
-        <v>149</v>
-      </c>
-      <c r="AH5">
-        <v>23</v>
-      </c>
-      <c r="AI5">
-        <v>1.57</v>
-      </c>
-      <c r="AJ5">
-        <v>32.9</v>
-      </c>
-      <c r="AK5">
-        <v>1025</v>
-      </c>
-      <c r="AL5">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="AM5">
-        <v>415</v>
-      </c>
-      <c r="AN5">
-        <v>23.8</v>
-      </c>
-      <c r="AO5">
-        <v>1.9</v>
-      </c>
-      <c r="AP5">
-        <v>1012</v>
-      </c>
-      <c r="AQ5">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AR5">
-        <v>152</v>
-      </c>
-      <c r="AS5">
-        <v>20</v>
-      </c>
-      <c r="AT5">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AU5">
-        <v>14.5</v>
-      </c>
-      <c r="AV5">
-        <v>3.2</v>
-      </c>
-      <c r="AW5">
-        <v>11.6</v>
-      </c>
-      <c r="AX5">
-        <v>1.45</v>
-      </c>
-      <c r="AY5">
-        <v>7.21</v>
-      </c>
-      <c r="AZ5">
-        <v>1.28</v>
-      </c>
-      <c r="BA5">
-        <v>3.13</v>
-      </c>
       <c r="BB5">
-        <v>0.42</v>
+        <v>2.56</v>
       </c>
       <c r="BC5">
-        <v>2.56</v>
+        <v>0.36</v>
       </c>
       <c r="BD5">
-        <v>0.36</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BE5">
-        <v>10.199999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="BF5">
-        <v>1.33</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="BG5">
-        <v>17.600000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="BH5">
-        <v>7.34</v>
-      </c>
-      <c r="BI5">
         <v>1.75</v>
       </c>
+      <c r="BI5" s="7">
+        <v>366.36</v>
+      </c>
       <c r="BJ5" s="7">
-        <v>366.36</v>
+        <v>0.74</v>
       </c>
       <c r="BK5" s="7">
-        <v>0.74</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="BL5" s="7">
-        <v>19.440000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="BM5" s="7">
-        <v>0.03</v>
+        <v>5537</v>
       </c>
       <c r="BN5" s="7">
-        <v>5537</v>
+        <v>2.91</v>
       </c>
       <c r="BO5" s="7">
-        <v>2.91</v>
+        <v>52.13</v>
       </c>
       <c r="BP5" s="7">
-        <v>52.13</v>
+        <v>17.91</v>
       </c>
       <c r="BQ5" s="7">
-        <v>17.91</v>
+        <v>40.79</v>
       </c>
       <c r="BR5" s="7">
-        <v>40.79</v>
-      </c>
-      <c r="BS5" s="7">
         <v>12.88</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2147,179 +2124,175 @@
         <v>9.86</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>6.34</v>
+        <v>0.09</v>
       </c>
       <c r="P6">
-        <v>0.09</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>3.2</v>
+        <v>6.39</v>
       </c>
       <c r="R6">
-        <v>6.39</v>
+        <v>3.94</v>
       </c>
       <c r="S6">
-        <v>3.94</v>
+        <v>2.4</v>
       </c>
       <c r="T6">
-        <v>2.4</v>
+        <v>0.96</v>
       </c>
       <c r="U6">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="V6">
-        <v>1.26</v>
+        <v>99.51</v>
       </c>
       <c r="W6">
-        <v>99.51</v>
+        <v>0.39</v>
       </c>
       <c r="X6">
-        <v>0.39</v>
+        <v>25.1</v>
       </c>
       <c r="Y6">
-        <v>25.1</v>
+        <v>3.35</v>
       </c>
       <c r="Z6">
-        <v>3.35</v>
+        <v>18</v>
       </c>
       <c r="AA6">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="AB6">
-        <v>207</v>
+        <v>7.7</v>
       </c>
       <c r="AC6">
-        <v>7.7</v>
+        <v>24.7</v>
       </c>
       <c r="AD6">
-        <v>24.7</v>
+        <v>15</v>
       </c>
       <c r="AE6">
-        <v>15</v>
+        <v>22.6</v>
       </c>
       <c r="AF6">
-        <v>22.6</v>
+        <v>138</v>
       </c>
       <c r="AG6">
-        <v>138</v>
+        <v>24.1</v>
       </c>
       <c r="AH6">
-        <v>24.1</v>
+        <v>1.44</v>
       </c>
       <c r="AI6">
-        <v>1.44</v>
+        <v>60.4</v>
       </c>
       <c r="AJ6">
-        <v>60.4</v>
+        <v>902</v>
       </c>
       <c r="AK6">
-        <v>902</v>
+        <v>32.1</v>
       </c>
       <c r="AL6">
-        <v>32.1</v>
+        <v>419</v>
       </c>
       <c r="AM6">
-        <v>419</v>
+        <v>21.4</v>
       </c>
       <c r="AN6">
-        <v>21.4</v>
+        <v>0.65</v>
       </c>
       <c r="AO6">
-        <v>0.65</v>
+        <v>1021</v>
       </c>
       <c r="AP6">
-        <v>1021</v>
+        <v>72</v>
       </c>
       <c r="AQ6">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="AR6">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AS6">
-        <v>20</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AT6">
-        <v>79.400000000000006</v>
+        <v>14.1</v>
       </c>
       <c r="AU6">
-        <v>14.1</v>
+        <v>3.32</v>
       </c>
       <c r="AV6">
-        <v>3.32</v>
+        <v>11.5</v>
       </c>
       <c r="AW6">
-        <v>11.5</v>
+        <v>1.43</v>
       </c>
       <c r="AX6">
-        <v>1.43</v>
+        <v>7.18</v>
       </c>
       <c r="AY6">
-        <v>7.18</v>
+        <v>1.3</v>
       </c>
       <c r="AZ6">
-        <v>1.3</v>
+        <v>3.22</v>
       </c>
       <c r="BA6">
-        <v>3.22</v>
+        <v>0.44</v>
       </c>
       <c r="BB6">
-        <v>0.44</v>
+        <v>2.63</v>
       </c>
       <c r="BC6">
-        <v>2.63</v>
+        <v>0.38</v>
       </c>
       <c r="BD6">
-        <v>0.38</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BE6">
-        <v>10.199999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="BF6">
-        <v>1.22</v>
+        <v>21.3</v>
       </c>
       <c r="BG6">
-        <v>21.3</v>
+        <v>9.39</v>
       </c>
       <c r="BH6">
-        <v>9.39</v>
-      </c>
-      <c r="BI6">
         <v>2</v>
       </c>
+      <c r="BI6" s="7">
+        <v>372.88</v>
+      </c>
       <c r="BJ6" s="7">
-        <v>372.88</v>
+        <v>0.78</v>
       </c>
       <c r="BK6" s="7">
-        <v>0.78</v>
+        <v>19.63</v>
       </c>
       <c r="BL6" s="7">
-        <v>19.63</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BM6" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>5266</v>
       </c>
       <c r="BN6" s="7">
-        <v>5266</v>
+        <v>3.36</v>
       </c>
       <c r="BO6" s="7">
-        <v>3.36</v>
+        <v>58.87</v>
       </c>
       <c r="BP6" s="7">
-        <v>58.87</v>
+        <v>17.53</v>
       </c>
       <c r="BQ6" s="7">
-        <v>17.53</v>
+        <v>41.1</v>
       </c>
       <c r="BR6" s="7">
-        <v>41.1</v>
-      </c>
-      <c r="BS6" s="7">
         <v>13.06</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2363,179 +2336,175 @@
         <v>7.85</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
+        <v>0.13</v>
       </c>
       <c r="P7">
-        <v>0.13</v>
+        <v>3.01</v>
       </c>
       <c r="Q7">
-        <v>3.01</v>
+        <v>7.59</v>
       </c>
       <c r="R7">
-        <v>7.59</v>
+        <v>3.56</v>
       </c>
       <c r="S7">
-        <v>3.56</v>
+        <v>2.34</v>
       </c>
       <c r="T7">
-        <v>2.34</v>
+        <v>0.59</v>
       </c>
       <c r="U7">
-        <v>0.59</v>
+        <v>3.65</v>
       </c>
       <c r="V7">
-        <v>3.65</v>
+        <v>99.6</v>
       </c>
       <c r="W7">
-        <v>99.6</v>
+        <v>0.43</v>
       </c>
       <c r="X7">
-        <v>0.43</v>
+        <v>11.9</v>
       </c>
       <c r="Y7">
-        <v>11.9</v>
+        <v>2.63</v>
       </c>
       <c r="Z7">
-        <v>2.63</v>
+        <v>16.7</v>
       </c>
       <c r="AA7">
-        <v>16.7</v>
+        <v>158</v>
       </c>
       <c r="AB7">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="AC7">
-        <v>118</v>
+        <v>23.7</v>
       </c>
       <c r="AD7">
-        <v>23.7</v>
+        <v>52.9</v>
       </c>
       <c r="AE7">
-        <v>52.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AF7">
-        <v>32.299999999999997</v>
+        <v>101</v>
       </c>
       <c r="AG7">
-        <v>101</v>
+        <v>20.8</v>
       </c>
       <c r="AH7">
-        <v>20.8</v>
+        <v>1.25</v>
       </c>
       <c r="AI7">
-        <v>1.25</v>
+        <v>92.8</v>
       </c>
       <c r="AJ7">
-        <v>92.8</v>
+        <v>941</v>
       </c>
       <c r="AK7">
-        <v>941</v>
+        <v>30.4</v>
       </c>
       <c r="AL7">
-        <v>30.4</v>
+        <v>280</v>
       </c>
       <c r="AM7">
-        <v>280</v>
+        <v>13.6</v>
       </c>
       <c r="AN7">
-        <v>13.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO7">
-        <v>3.55</v>
+        <v>830</v>
       </c>
       <c r="AP7">
-        <v>830</v>
+        <v>48.2</v>
       </c>
       <c r="AQ7">
-        <v>48.2</v>
+        <v>102</v>
       </c>
       <c r="AR7">
-        <v>102</v>
+        <v>12.5</v>
       </c>
       <c r="AS7">
-        <v>12.5</v>
+        <v>50.9</v>
       </c>
       <c r="AT7">
-        <v>50.9</v>
+        <v>9.1</v>
       </c>
       <c r="AU7">
-        <v>9.1</v>
+        <v>2.29</v>
       </c>
       <c r="AV7">
-        <v>2.29</v>
+        <v>7.53</v>
       </c>
       <c r="AW7">
-        <v>7.53</v>
+        <v>0.95</v>
       </c>
       <c r="AX7">
-        <v>0.95</v>
+        <v>4.79</v>
       </c>
       <c r="AY7">
-        <v>4.79</v>
+        <v>0.88</v>
       </c>
       <c r="AZ7">
-        <v>0.88</v>
+        <v>2.21</v>
       </c>
       <c r="BA7">
-        <v>2.21</v>
+        <v>0.3</v>
       </c>
       <c r="BB7">
-        <v>0.3</v>
+        <v>1.86</v>
       </c>
       <c r="BC7">
-        <v>1.86</v>
+        <v>0.26</v>
       </c>
       <c r="BD7">
-        <v>0.26</v>
+        <v>7.09</v>
       </c>
       <c r="BE7">
-        <v>7.09</v>
+        <v>0.85</v>
       </c>
       <c r="BF7">
-        <v>0.85</v>
+        <v>19.8</v>
       </c>
       <c r="BG7">
-        <v>19.8</v>
+        <v>7.16</v>
       </c>
       <c r="BH7">
-        <v>7.16</v>
-      </c>
-      <c r="BI7">
         <v>1.7</v>
       </c>
+      <c r="BI7" s="7">
+        <v>243.58</v>
+      </c>
       <c r="BJ7" s="7">
-        <v>243.58</v>
+        <v>0.83</v>
       </c>
       <c r="BK7" s="7">
-        <v>0.83</v>
+        <v>18.77</v>
       </c>
       <c r="BL7" s="7">
-        <v>18.77</v>
+        <v>0.1</v>
       </c>
       <c r="BM7" s="7">
-        <v>0.1</v>
+        <v>4745</v>
       </c>
       <c r="BN7" s="7">
-        <v>4745</v>
+        <v>3.54</v>
       </c>
       <c r="BO7" s="7">
-        <v>3.54</v>
+        <v>56.74</v>
       </c>
       <c r="BP7" s="7">
-        <v>56.74</v>
+        <v>16.05</v>
       </c>
       <c r="BQ7" s="7">
-        <v>16.05</v>
+        <v>39.46</v>
       </c>
       <c r="BR7" s="7">
-        <v>39.46</v>
-      </c>
-      <c r="BS7" s="7">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2579,179 +2548,175 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>6.54</v>
+        <v>0.08</v>
       </c>
       <c r="P8">
-        <v>0.08</v>
+        <v>1.64</v>
       </c>
       <c r="Q8">
-        <v>1.64</v>
+        <v>6.43</v>
       </c>
       <c r="R8">
-        <v>6.43</v>
+        <v>4.13</v>
       </c>
       <c r="S8">
-        <v>4.13</v>
+        <v>2.41</v>
       </c>
       <c r="T8">
-        <v>2.41</v>
+        <v>0.71</v>
       </c>
       <c r="U8">
-        <v>0.71</v>
+        <v>1.88</v>
       </c>
       <c r="V8">
-        <v>1.88</v>
+        <v>99.94</v>
       </c>
       <c r="W8">
-        <v>99.94</v>
+        <v>0.26</v>
       </c>
       <c r="X8">
-        <v>0.26</v>
+        <v>21.8</v>
       </c>
       <c r="Y8">
-        <v>21.8</v>
+        <v>3.05</v>
       </c>
       <c r="Z8">
-        <v>3.05</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AA8">
-        <v>16.899999999999999</v>
+        <v>160</v>
       </c>
       <c r="AB8">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AC8">
-        <v>105</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AD8">
-        <v>18.600000000000001</v>
+        <v>30.7</v>
       </c>
       <c r="AE8">
-        <v>30.7</v>
+        <v>28.2</v>
       </c>
       <c r="AF8">
-        <v>28.2</v>
+        <v>106</v>
       </c>
       <c r="AG8">
-        <v>106</v>
+        <v>22.2</v>
       </c>
       <c r="AH8">
-        <v>22.2</v>
+        <v>1.29</v>
       </c>
       <c r="AI8">
-        <v>1.29</v>
+        <v>59.3</v>
       </c>
       <c r="AJ8">
-        <v>59.3</v>
+        <v>995</v>
       </c>
       <c r="AK8">
-        <v>995</v>
+        <v>25.2</v>
       </c>
       <c r="AL8">
-        <v>25.2</v>
+        <v>337</v>
       </c>
       <c r="AM8">
-        <v>337</v>
+        <v>17.8</v>
       </c>
       <c r="AN8">
-        <v>17.8</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="AO8">
-        <v>5.0199999999999996</v>
+        <v>1080</v>
       </c>
       <c r="AP8">
-        <v>1080</v>
+        <v>56.1</v>
       </c>
       <c r="AQ8">
-        <v>56.1</v>
+        <v>119</v>
       </c>
       <c r="AR8">
-        <v>119</v>
+        <v>14.8</v>
       </c>
       <c r="AS8">
-        <v>14.8</v>
+        <v>60.4</v>
       </c>
       <c r="AT8">
-        <v>60.4</v>
+        <v>10.8</v>
       </c>
       <c r="AU8">
-        <v>10.8</v>
+        <v>2.69</v>
       </c>
       <c r="AV8">
-        <v>2.69</v>
+        <v>9.09</v>
       </c>
       <c r="AW8">
-        <v>9.09</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AX8">
-        <v>1.1599999999999999</v>
+        <v>5.82</v>
       </c>
       <c r="AY8">
-        <v>5.82</v>
+        <v>1.06</v>
       </c>
       <c r="AZ8">
-        <v>1.06</v>
+        <v>2.63</v>
       </c>
       <c r="BA8">
-        <v>2.63</v>
+        <v>0.35</v>
       </c>
       <c r="BB8">
-        <v>0.35</v>
+        <v>2.1</v>
       </c>
       <c r="BC8">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="BD8">
-        <v>0.3</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="BE8">
-        <v>8.4600000000000009</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF8">
-        <v>1.1000000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="BG8">
-        <v>18.7</v>
+        <v>8.66</v>
       </c>
       <c r="BH8">
-        <v>8.66</v>
-      </c>
-      <c r="BI8">
         <v>1.95</v>
       </c>
+      <c r="BI8" s="7">
+        <v>285.83999999999997</v>
+      </c>
       <c r="BJ8" s="7">
-        <v>285.83999999999997</v>
+        <v>0.81</v>
       </c>
       <c r="BK8" s="7">
-        <v>0.81</v>
+        <v>19.05</v>
       </c>
       <c r="BL8" s="7">
-        <v>19.05</v>
+        <v>0.06</v>
       </c>
       <c r="BM8" s="7">
-        <v>0.06</v>
+        <v>5221</v>
       </c>
       <c r="BN8" s="7">
-        <v>5221</v>
+        <v>3.15</v>
       </c>
       <c r="BO8" s="7">
-        <v>3.15</v>
+        <v>50.9</v>
       </c>
       <c r="BP8" s="7">
-        <v>50.9</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="BQ8" s="7">
-        <v>16.170000000000002</v>
+        <v>39.82</v>
       </c>
       <c r="BR8" s="7">
-        <v>39.82</v>
-      </c>
-      <c r="BS8" s="7">
         <v>13.36</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2795,175 +2760,171 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>4.71</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P9">
-        <v>0.14000000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="Q9">
-        <v>9.59</v>
+        <v>8.18</v>
       </c>
       <c r="R9">
-        <v>8.18</v>
+        <v>3.14</v>
       </c>
       <c r="S9">
-        <v>3.14</v>
+        <v>1.57</v>
       </c>
       <c r="T9">
-        <v>1.57</v>
+        <v>0.3</v>
       </c>
       <c r="U9">
-        <v>0.3</v>
+        <v>1.54</v>
       </c>
       <c r="V9">
-        <v>1.54</v>
+        <v>99.56</v>
       </c>
       <c r="W9">
-        <v>99.56</v>
+        <v>0.66</v>
       </c>
       <c r="X9">
-        <v>0.66</v>
+        <v>17</v>
       </c>
       <c r="Y9">
-        <v>17</v>
+        <v>1.76</v>
       </c>
       <c r="Z9">
-        <v>1.76</v>
+        <v>25.9</v>
       </c>
       <c r="AA9">
-        <v>25.9</v>
+        <v>211</v>
       </c>
       <c r="AB9">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="AC9">
-        <v>466</v>
+        <v>43.4</v>
       </c>
       <c r="AD9">
-        <v>43.4</v>
+        <v>200</v>
       </c>
       <c r="AE9">
-        <v>200</v>
+        <v>53.4</v>
       </c>
       <c r="AF9">
-        <v>53.4</v>
+        <v>77</v>
       </c>
       <c r="AG9">
-        <v>77</v>
+        <v>17.3</v>
       </c>
       <c r="AH9">
-        <v>17.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI9">
-        <v>1.33</v>
+        <v>29</v>
       </c>
       <c r="AJ9">
-        <v>29</v>
+        <v>700</v>
       </c>
       <c r="AK9">
-        <v>700</v>
+        <v>21.7</v>
       </c>
       <c r="AL9">
-        <v>21.7</v>
+        <v>150</v>
       </c>
       <c r="AM9">
-        <v>150</v>
+        <v>9.6</v>
       </c>
       <c r="AN9">
-        <v>9.6</v>
+        <v>3.29</v>
       </c>
       <c r="AO9">
-        <v>3.29</v>
+        <v>594</v>
       </c>
       <c r="AP9">
-        <v>594</v>
+        <v>21.5</v>
       </c>
       <c r="AQ9">
-        <v>21.5</v>
+        <v>47.1</v>
       </c>
       <c r="AR9">
-        <v>47.1</v>
+        <v>5.9</v>
       </c>
       <c r="AS9">
-        <v>5.9</v>
+        <v>25.5</v>
       </c>
       <c r="AT9">
-        <v>25.5</v>
+        <v>5.6</v>
       </c>
       <c r="AU9">
-        <v>5.6</v>
+        <v>1.68</v>
       </c>
       <c r="AV9">
-        <v>1.68</v>
+        <v>5.4</v>
       </c>
       <c r="AW9">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="AX9">
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AY9">
-        <v>4.5999999999999996</v>
+        <v>0.93</v>
       </c>
       <c r="AZ9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.36</v>
+      </c>
+      <c r="BB9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BC9">
+        <v>0.32</v>
+      </c>
+      <c r="BD9">
+        <v>4.08</v>
+      </c>
+      <c r="BE9">
+        <v>0.73</v>
+      </c>
+      <c r="BF9">
+        <v>11.2</v>
+      </c>
+      <c r="BG9">
+        <v>3.8</v>
+      </c>
+      <c r="BH9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BI9" s="7">
+        <v>124.31</v>
+      </c>
+      <c r="BJ9" s="7">
         <v>0.93</v>
       </c>
-      <c r="BA9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="BB9">
-        <v>0.36</v>
-      </c>
-      <c r="BC9">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="BD9">
-        <v>0.32</v>
-      </c>
-      <c r="BE9">
-        <v>4.08</v>
-      </c>
-      <c r="BF9">
-        <v>0.73</v>
-      </c>
-      <c r="BG9">
-        <v>11.2</v>
-      </c>
-      <c r="BH9">
-        <v>3.8</v>
-      </c>
-      <c r="BI9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BJ9" s="7">
-        <v>124.31</v>
-      </c>
       <c r="BK9" s="7">
-        <v>0.93</v>
+        <v>6.86</v>
       </c>
       <c r="BL9" s="7">
-        <v>6.86</v>
+        <v>0.04</v>
       </c>
       <c r="BM9" s="7">
-        <v>0.04</v>
+        <v>3887</v>
       </c>
       <c r="BN9" s="7">
-        <v>3887</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="BO9" s="7">
-        <v>2.2400000000000002</v>
+        <v>29.27</v>
       </c>
       <c r="BP9" s="7">
-        <v>29.27</v>
+        <v>13.04</v>
       </c>
       <c r="BQ9" s="7">
-        <v>13.04</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="BR9" s="7">
-        <v>36.729999999999997</v>
-      </c>
-      <c r="BS9" s="7">
         <v>6.9</v>
       </c>
     </row>
